--- a/scraped_data_page_6.xlsx
+++ b/scraped_data_page_6.xlsx
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>"M" CAR GARAGE, Matej Pelc s.p.</t>
+          <t>"BEAUTY" ZDENKA SAVIĆ S.P.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Štajngrova    7, Štajngrova, 2234 Benedikt</t>
+          <t>Ulica mesta Grevenbroich   13, Celje, 3000 Celje</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -502,35 +502,43 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16. 1. 2023</t>
+          <t>22. 4. 1994</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/M-CAR-GARAGE-MATEJ-PELC-S-P/</t>
+          <t>https://www.bizi.si/BEAUTY-ZDENKA-SAVIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>"VOGRINEC DETAILING", JELKA VOGRINEC s.p.</t>
+          <t>"BIOLAS" SIMONA ŠOŠTARIČ S.P.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lomanoše   23A, Lomanoše, 9250 Gornja Radgona</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>Podgorci    4, Podgorci, 2273 Podgorci</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>02 7192329</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -538,40 +546,44 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>biolas@amis.net</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4. 11. 2024</t>
+          <t>1. 12. 1995</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/VOGRINEC-DETAILING-JELKA-VOGRINEC-S-P/</t>
+          <t>https://www.bizi.si/BIOLAS-SIMONA-SOSTARIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>324 d.o.o.</t>
+          <t>"FARAON" PODOBNIK PAVLA S.P.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cesta 8. maja    2, Log pri Brezovici, 1358 Log pri Brezovici</t>
+          <t>Triglavska cesta   53, Radovljica, 4240 Radovljica</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>041 985079</t>
+          <t>04 5312529</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -581,38 +593,46 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>324servis@gmail.com</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>29. 9. 2020</t>
+          <t>27. 5. 1997</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/324-D-O-O/</t>
+          <t>https://www.bizi.si/FARAON-PODOBNIK-PAVLA-S-P/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3DM, Miha Drožđan s.p.</t>
+          <t>"FIGARO" (FRIZERSKI SALON) ZORAN FREIBERG S.P.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mrtvice   49, Mrtvice, 8273 Leskovec pri Krškem</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>Bazoviška ulica   18, Nova Gorica, 5000 Nova Gorica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>040 849114</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -623,35 +643,43 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1. 2. 2023</t>
+          <t>17. 1. 1994</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/3DM-MIHA-DROZDAN-S-P/</t>
+          <t>https://www.bizi.si/FIGARO-FRIZERSKI-SALON-ZORAN-FREIBERG-S-P/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3S &amp; 3S, Alojz Tičar s.p.</t>
+          <t>"FRIZERSKI STUDIO M" MIRA POLJŠAK SIROVINA S.P.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bučka    5A, Bučka, 8276 Bučka</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>Majorja Lavriča ulica   12, Ljubljana, 1000 Ljubljana</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01 5183286</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -662,78 +690,90 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3. 10. 2020</t>
+          <t>14. 12. 1998</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/3S-3S-ALOJZ-TICAR-S-P/</t>
+          <t>https://www.bizi.si/FRIZERSKI-STUDIO-M-MIRA-POLJSAK-SIROVINA-S-P/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4WHEEL SERVICE, Klemen Drufovka s.p.</t>
+          <t>"LASNICA" Helena Novak s.p.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gramozna pot    7B, Ljubljana, 1000 Ljubljana</t>
+          <t>Ljubljanska cesta   90, Domžale, 1230 Domžale</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>031 245692</t>
+          <t>041 288579</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Več kontaktov v TIS-u</t>
+          <t>http://www.frizerskisalon-mira.si</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>klemend4@gmail.com</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>info@frizerskisalon-mira.si</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1. 2. 2022</t>
+          <t>1. 1. 2002</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/4WHEEL-SERVICE-KLEMEN-DRUFOVKA-S-P/</t>
+          <t>https://www.bizi.si/LASNICA-HELENA-NOVAK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A - SHINE Andraž Rozman s.p.</t>
+          <t>"MARJANA" MARJANA HOMJAK S.P.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ulica Frankolovskih žrtev   34, Celje, 3000 Celje</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>Trinkova ulica    3, PIRAN - PIRANO, 6330 Piran - Pirano</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>041 818831</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -744,37 +784,41 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Velikost RS se ne izračunava</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22. 4. 2024</t>
+          <t>1. 6. 1994</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/A-SHINE-ANDRAZ-ROZMAN-S-P/</t>
+          <t>https://www.bizi.si/MARJANA-MARJANA-HOMJAK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A&amp;L GARAGE, Klemen Jaušovec s.p.</t>
+          <t>"MOŠKO FRIZERSTVO" ANTON KOMATAR S.P.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Strjanci    3A, Strjanci, 2273 Podgorci</t>
+          <t>Koliška ulica    1, Vir, 1230 Domžale</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>041 455129</t>
+          <t>01 7211623</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -787,37 +831,41 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1. 2. 2024</t>
+          <t>9. 7. 1987</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/A-L-GARAGE-KLEMEN-JAUSOVEC-S-P/</t>
+          <t>https://www.bizi.si/MOSKO-FRIZERSTVO-ANTON-KOMATAR-S-P/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A&amp;M AUTO DETAILING, Monika Tomašić s.p.</t>
+          <t>"SILVA", d.o.o.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Milčinskega ulica   14, Celje, 3000 Celje</t>
+          <t>Kranjčeva ulica   12, Moravske Toplice, 9226 Moravske Toplice</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>041 388981</t>
+          <t>041 413671</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -827,40 +875,44 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>anfalov.vladimir@siol.net</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1. 5. 2022</t>
+          <t>18. 2. 2011</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/A-M-AUTO-DETAILING-MONIKA-TOMASIC-S-P/</t>
+          <t>https://www.bizi.si/SILVA-D-O-O/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A-JUSS HITRI SERVIS JASMIN KADIRIĆ S.P.</t>
+          <t>"STUDIO IN", URŠKA PUŠNIK s.p.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Velika pot   14, Solkan, 5250 Solkan</t>
+          <t>Šentiljska cesta   27, Maribor, 2000 Maribor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>040 204966</t>
+          <t>02 2526573</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -870,7 +922,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
+          <t>urska@studio-in.si</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -880,34 +932,34 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15. 9. 2017</t>
+          <t>1. 6. 2011</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/A-JUSS-HITRI-SERVIS-JASMIN-KADIRIC-S-P/</t>
+          <t>https://www.bizi.si/STUDIO-IN-URSKA-PUSNIK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A.C.B., d.o.o.</t>
+          <t>"ČESALNICA LAS" - ŽENSKO IN MOŠKO FRIZERSTVO - OLGA NOVAK S.P.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ljubljanska ulica   50, Maribor, 2000 Maribor</t>
+          <t>Ziherlova ulica    6, Ljubljana, 1000 Ljubljana</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>041 626767</t>
+          <t>01 4298020</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -927,34 +979,34 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15. 10. 2013</t>
+          <t>1. 7. 1993</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/A-C-B-D-O-O/</t>
+          <t>https://www.bizi.si/CESALNICA-LAS-ZENSKO-IN-MOSKO-FRIZERSTVO-OLGA-NOVAK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A.D.S., Anja Skaza s.p.</t>
+          <t>"ČESALNICA VENERA" FRIZERSTVO SUZANA PERKO S.P.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Plintovec   33A, Plintovec, 2201 Zgornja Kungota</t>
+          <t>Ulica XXX. divizije   21, Nova Gorica, 5000 Nova Gorica</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>069 756730</t>
+          <t>05 3027107</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -964,38 +1016,46 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>info.ads.sp@gmail.com</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24. 9. 2024</t>
+          <t>15. 11. 1999</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/A-D-S-ANJA-SKAZA-S-P/</t>
+          <t>https://www.bizi.si/CESALNICA-VENERA-FRIZERSTVO-SUZANA-PERKO-S-P/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A.G. STAR, GZIM AVDIJA s.p.</t>
+          <t>''PATY'' PATRICIJA STUBELJ S.P.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Primorska cesta    1, Šoštanj, 3325 Šoštanj</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>Bevkov trg    6, Nova Gorica, 5000 Nova Gorica</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>05 3001131</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1006,32 +1066,36 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1. 10. 2023</t>
+          <t>6. 11. 2007</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/A-G-STAR-GZIM-AVDIJA-S-P/</t>
+          <t>https://www.bizi.si/PATY-PATRICIJA-STUBELJ-S-P/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A1S, Alen Šinko s.p.</t>
+          <t>3S Saša Šuštar s.p.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Spodnja Ščavnica   20, Spodnja Ščavnica, 9250 Gornja Radgona</t>
+          <t>Mošenik    5, Mošenik, 1282 Sava</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1048,29 +1112,29 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10. 2. 2025</t>
+          <t>1. 1. 2022</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/A1S-ALEN-SINKO-S-P/</t>
+          <t>https://www.bizi.si/3S-SASA-SUSTAR-S-P/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AC BIMMER d.o.o.</t>
+          <t>3TiM d.o.o.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ulica borcev za severno mejo   24, Ljubljana, 1000 Ljubljana</t>
+          <t>Krpanova ulica    9, Celje, 3000 Celje</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1081,38 +1145,46 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>info@ac-bimmer.si</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>studiodeja@gmail.com</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2. 12. 2024</t>
+          <t>29. 10. 2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AC-BIMMER-D-O-O/</t>
+          <t>https://www.bizi.si/3TIM-D-O-O_CELJE/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AC ELITE Klemen Lahovec s.p.</t>
+          <t>5AR, Petar Marjanac s.p.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Smoletova ulica    3, Ljubljana, 1000 Ljubljana</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>Čečovje    6, Ravne na Koroškem, 2390 Ravne na Koroškem</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>070 161351</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1120,46 +1192,38 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Ni podatka o velikosti</t>
-        </is>
-      </c>
+          <t>petar.marjanac@gmail.com</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13. 2. 2019</t>
+          <t>5. 12. 2023</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AC-ELITE-KLEMEN-LAHOVEC-S-P/</t>
+          <t>https://www.bizi.si/5AR-PETAR-MARJANAC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AC JUR TEAM d.o.o.</t>
+          <t>726 STUDIO, Nina Marjeta Babnik s.p.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Srednje Bitnje   66B, Srednje Bitnje, 4209 Žabnica</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>041 773790</t>
-        </is>
-      </c>
+          <t>Dunajska cesta   43, Ljubljana, 1000 Ljubljana</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1167,42 +1231,46 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>avto.jur@siol.net</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ni podatka o velikosti</t>
+          <t>Mikro enote</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13. 6. 2023</t>
+          <t>9. 1. 2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AC-JUR-TEAM-D-O-O/</t>
+          <t>https://www.bizi.si/726-STUDIO-NINA-MARJETA-BABNIK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AC Vreček, Tomaž Vreček s.p.</t>
+          <t>A STUDIO ALEKSANDRA JAMNIK S.P.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Velesovo   54, Velesovo, 4207 Cerklje na Gorenjskem</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>Gregorčičeva ulica    6, Maribor, 2000 Maribor</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>041 581035</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1210,38 +1278,46 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>aleksandra.jamnik@gmail.com</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1. 10. 2024</t>
+          <t>23. 1. 2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AC-VRECEK-TOMAZ-VRECEK-S-P/</t>
+          <t>https://www.bizi.si/A-STUDIO-ALEKSANDRA-JAMNIK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ACI, Marko Ivanković s.p.</t>
+          <t>A&amp;M AFERDITA PRESHTRESHI S.P.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Brilejeva ulica   21, Ljubljana, 1000 Ljubljana</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>Ulica Staneta Rozmana   11, Črnomelj, 8340 Črnomelj</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0590 23120</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1249,35 +1325,39 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ivankovic.marko80@gmail.com</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1. 2. 2020</t>
+          <t>1. 6. 2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ACI-MARKO-IVANKOVIC-S-P/</t>
+          <t>https://www.bizi.si/A-M-AFERDITA-PRESHTRESHI-S-P/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ACM AVTO CENTER MARIBOR d.o.o.</t>
+          <t>A-FINS, Anita Bodiroža s.p.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jadranska cesta   25, Maribor, 2000 Maribor</t>
+          <t>Ulica Dušana Kvedra   16, Celje, 3000 Celje</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1288,38 +1368,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>avtocentermaribor@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>17. 10. 2022</t>
+          <t>1. 12. 2023</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ACM-AVTO-CENTER-MARIBOR-D-O-O/</t>
+          <t>https://www.bizi.si/A-FINS-ANITA-BODIROZA-S-P/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ACV d.o.o.</t>
+          <t>A-LENKA ALENKA TEKAVEC S.P.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Vojkova cesta   58, Ljubljana, 1000 Ljubljana</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>Cankarjeva cesta    6, Litija, 1270 Litija</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>01 8983424</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1327,40 +1411,44 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>acv.damir@gmail.com</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>tekavecalenka@gmail.com</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>4. 6. 2019</t>
+          <t>1. 10. 2012</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ACV-D-O-O/</t>
+          <t>https://www.bizi.si/A-LENKA-ALENKA-TEKAVEC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ACŠ, Blaž Švelc, s.p.</t>
+          <t>A. STUDIO IN ANITA TOMAZIN NOVAK S.P.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Levstikova ulica   12A, Zagorje ob Savi, 1410 Zagorje ob Savi</t>
+          <t>Novomeška cesta   11, Šentjernej, 8310 Šentjernej</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>041 655104</t>
+          <t>051 331665</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1370,40 +1458,44 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>astudioin@gmail.com</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1. 5. 2024</t>
+          <t>15. 8. 2003</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ACS-BLAZ-SVELC-S-P/</t>
+          <t>https://www.bizi.si/A-STUDIO-IN-ANITA-TOMAZIN-NOVAK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AD AVTO d.o.o.</t>
+          <t>A2O, Alenka Aucin s.p.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Steletova cesta   23A, Kamnik, 1241 Kamnik</t>
+          <t>Pšatnik   24, Ljubljana, 1211 LJUBLJANA ŠMARTNO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>041 698993</t>
+          <t>040 542824</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1413,42 +1505,38 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>adavto.servis@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>27. 12. 2019</t>
+          <t>18. 4. 2022</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AD-AVTO-D-O-O_KAMNIK/</t>
+          <t>https://www.bizi.si/A2O-ALENKA-AUCIN-S-P/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AD SERVIS, Ahmed Delić s.p.</t>
+          <t>AB - CUTS, Adnan Bahtagić s.p.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ruprova ulica   10, Miklavž na Dravskem polju, 2204 Miklavž na Dravskem polju</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>069 631235</t>
-        </is>
-      </c>
+          <t>Pivovarniška ulica    6, Ljubljana, 1000 Ljubljana</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1462,36 +1550,32 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1. 5. 2024</t>
+          <t>12. 9. 2023</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AD-SERVIS-AHMED-DELIC-S-P/</t>
+          <t>https://www.bizi.si/AB-CUTS-ADNAN-BAHTAGIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ADF Design d.o.o.</t>
+          <t>ABSTRAKT BARBERS, MARK ĆULIBRK S.P.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Koseskega ulica   63, Maribor, 2000 Maribor</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>041 653246</t>
-        </is>
-      </c>
+          <t>Cesta na Klanec    8L, Kranj, 4000 Kranj</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1499,40 +1583,40 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>adfdesign.doo@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12. 9. 2019</t>
+          <t>25. 4. 2020</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ADF-DESIGN-D-O-O/</t>
+          <t>https://www.bizi.si/ABSTRAKT-BARBERS-MARK-CULIBRK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ADIS GOLETIĆ s.p.</t>
+          <t>ADELA IBRALIĆ S.P.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Primostek   39, Primostek, 8332 Gradac</t>
+          <t>Stari trg   35, Velenje, 3320 Velenje</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>051 710592</t>
+          <t>041 228453</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1542,42 +1626,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>adisgoletic@gmail.com</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1. 3. 2024</t>
+          <t>2. 11. 2011</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ADIS-GOLETIC-S-P/</t>
+          <t>https://www.bizi.si/ADELA-IBRALIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ADL DAVID LJUBEC s.p.</t>
+          <t>ADI AHMETOVIĆ S.P.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Stanetinci    8A, Stanetinci, 2236 Cerkvenjak</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>031 555491</t>
-        </is>
-      </c>
+          <t>Breg   28, Celje, 3000 Celje</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1591,34 +1675,34 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3. 2. 2024</t>
+          <t>1. 10. 2023</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ADL-DAVID-LJUBEC-S-P/</t>
+          <t>https://www.bizi.si/ADI-AHMETOVIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ADS, SAŠO MARKELJ S.P.</t>
+          <t>ADRIANA KUKOL S.P.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Spodnje Izlake    1, Izlake, 1411 Izlake</t>
+          <t>Cven   87A, Cven, 9240 Ljutomer</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>040 172552</t>
+          <t>031 356247</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1628,38 +1712,46 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>markelj.saso@gmail.com</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
+          <t>frizerstvo.kukol@gmail.com</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5. 10. 2023</t>
+          <t>13. 2. 2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ADS-SASO-MARKELJ-S-P/</t>
+          <t>https://www.bizi.si/ADRIANA-KUKOL-S-P/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AEG Gojkošek d.o.o.</t>
+          <t>ADRIANA SOVIČ s.p.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Lovrenc na Dravskem polju   32A, Lovrenc na Dravskem polju, 2324 Lovrenc na Dravskem polju</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>Pohorska cesta   17C, Slovenj Gradec, 2380 Slovenj Gradec</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>041 419977</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1667,40 +1759,44 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>marjan.gojkosek@gmail.com</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+          <t>adriana.sovic@gmail.com</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>16. 7. 2024</t>
+          <t>28. 6. 2008</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AEG-GOJKOSEK-D-O-O/</t>
+          <t>https://www.bizi.si/ADRIANA-SOVIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AEL, d.o.o., Domžale</t>
+          <t>ADRIJANA GRAGER S.P.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Zoisova ulica   30, Vir, 1230 Domžale</t>
+          <t>Trstenjakova ulica    5, Ptuj, 2250 Ptuj</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>041 785672</t>
+          <t>041 677972</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1710,7 +1806,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>avtoelektrikasusnik@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1720,34 +1816,34 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>15. 7. 1997</t>
+          <t>5. 1. 2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AEL-D-O-O-DOMZALE/</t>
+          <t>https://www.bizi.si/ADRIJANA-GRAGER-S-P/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AH SERVIS, Armin Hasić s.p.</t>
+          <t>ADRIJANA MEŽNAR S.P.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Kidričevo naselje    6, Postojna, 6230 Postojna</t>
+          <t>Harije   81, Harije, 6250 Ilirska Bistrica</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>031 448014</t>
+          <t>041 875083</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1760,35 +1856,43 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1. 7. 2020</t>
+          <t>16. 9. 2006</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AH-SERVIS-ARMIN-HASIC-S-P/</t>
+          <t>https://www.bizi.si/ADRIJANA-MEZNAR-S-P/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>AHV NAVTIKA d.o.o.</t>
+          <t>ADRIJANA MOŽINA S.P.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cesta Osvobodilne fronte   25, Log pri Brezovici, 1358 Log pri Brezovici</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>Gregorčičeva cesta   19, Ilirska Bistrica, 6250 Ilirska Bistrica</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>05 7141609</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1796,7 +1900,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>janislabanja@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1806,32 +1910,36 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>13. 9. 2012</t>
+          <t>15. 6. 2004</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AHV-NAVTIKA-D-O-O/</t>
+          <t>https://www.bizi.si/ADRIJANA-MOZINA-S-P/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AJ AVTOKOZMETIKA, Mirzeta Jašarević s.p.</t>
+          <t>ADUT BRIGITA KRAPEŽ S.P.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Spodnji Plavž   23, Jesenice, 4270 Jesenice</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
+          <t>Godovič    2A, Godovič, 5275 Godovič</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>031 820448</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1839,35 +1947,39 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ajavtokozmetika@gmail.com</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18. 3. 2025</t>
+          <t>15. 12. 2010</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AJ-AVTOKOZMETIKA-MIRZETA-JASAREVIC-S-P/</t>
+          <t>https://www.bizi.si/ADUT-BRIGITA-KRAPEZ-S-P/</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AKC Sport d.o.o.</t>
+          <t>AFNA FRIZERAJ, ANJA KRISTAVČNIK S.P.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nasirec   15, Nasirec, 6240 Kozina</t>
+          <t>Lokovica   40A, Lokovica, 3325 Šoštanj</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1878,42 +1990,42 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>akcsport@gmail.com</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>11. 3. 2025</t>
+          <t>1. 1. 2017</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AKC-SPORT-D-O-O/</t>
+          <t>https://www.bizi.si/AFNA-FRIZERAJ-ANJA-KRISTAVCNIK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ALADIN DURIĆ S.P.</t>
+          <t>AG Andrejka Gagič s.p.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Kolodvorska ulica    3, Divača, 6215 Divača</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>070 240788</t>
-        </is>
-      </c>
+          <t>Visoče    4B, Visoče, 3225 Planina pri Sevnici</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1924,37 +2036,41 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>21. 9. 2021</t>
+          <t>16. 5. 2016</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ALADIN-DURIC-S-P/</t>
+          <t>https://www.bizi.si/AG-ANDREJKA-GAGIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ALAN A &amp; A DAVID APOLLONIO S.P.</t>
+          <t>AGICA ATELŠEK S.P.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sermin   73A, BERTOKI - BERTOCCHI, 6000 Koper - Capodistria</t>
+          <t>Rečica ob Savinji   95A, Rečica ob Savinji, 3332 Rečica ob Savinji</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>040 648281</t>
+          <t>031 375042</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1964,7 +2080,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>david.apollonio@siol.net</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1974,29 +2090,29 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>9. 10. 1996</t>
+          <t>19. 8. 2003</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ALAN-A-A-DAVID-APOLLONIO-S-P/</t>
+          <t>https://www.bizi.si/AGICA-ATELSEK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ALBI d.o.o.</t>
+          <t>AIDA ČORDIĆ S.P.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Humekova ulica    8, Krško, 8270 Krško</t>
+          <t>Cesta železarjev    4B, Jesenice, 4270 Jesenice</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2007,38 +2123,46 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>albikrasniqi289@gmail.com</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>5. 4. 2024</t>
+          <t>1. 1. 2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ALBI-D-O-O_KRSKO/</t>
+          <t>https://www.bizi.si/AIDA-CORDIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ALEKSANDER LUPŠA S. P.</t>
+          <t>AJSELA AGOVIĆ S.P.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mladinska ulica   27, ŠENTILJ V SLOVENSKIH GORICAH, 2212 ŠENTILJ V SLOVENSKIH GORICAH</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+          <t>Žitna ulica   12, Maribor, 2000 Maribor</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>03 205207</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -2056,44 +2180,44 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>9. 6. 2010</t>
+          <t>7. 5. 2007</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ALEKSANDER-LUPSA-S-P/</t>
+          <t>https://www.bizi.si/AJSELA-AGOVIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ALEŠ ALJANČIČ S.P.</t>
+          <t>AKTRIS d.o.o.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Kovorska cesta    4, Bistrica pri Tržiču, 4290 Tržič</t>
+          <t>Vojkova cesta   77, Ljubljana, 1000 Ljubljana</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>040 835456</t>
+          <t>01 5243611</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Več kontaktov v TIS-u</t>
+          <t>http://www.frizerstvoaktris.com</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ales.aljancic@gmail.com</t>
+          <t>frizerstvo.aktris@siol.net</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2103,34 +2227,34 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>9. 9. 2004</t>
+          <t>18. 2. 2004</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ALES-ALJANCIC-S-P/</t>
+          <t>https://www.bizi.si/AKTRIS-D-O-O/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ALEŠ DAJČMAN, s.p.</t>
+          <t>ALA KATIC S.P.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Vukovje   41, Vukovje, 2231 Pernica</t>
+          <t>Kolodvorska ulica    1A, Krško, 8270 Krško</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>041 817742</t>
+          <t>070 554006</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2140,46 +2264,38 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Mikro enote</t>
-        </is>
-      </c>
+          <t>alamirzac.pr@gmail.com</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>10. 10. 2013</t>
+          <t>15. 6. 2020</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ALES-DAJCMAN-S-P/</t>
+          <t>https://www.bizi.si/ALA-KATIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ALEŠ GODEC S.P.</t>
+          <t>ALE ALE, Aleksandra Marčec s.p.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ulica padlih borcev   27, Šempeter pri Gorici, 5290 Šempeter pri Gorici</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>031 605141</t>
-        </is>
-      </c>
+          <t>Miklošičeva ulica    2, Celje, 3000 Celje</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -2190,43 +2306,35 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Mikro enote</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>8. 1. 2013</t>
+          <t>13. 4. 2023</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ALES-GODEC-S-P/</t>
+          <t>https://www.bizi.si/ALE-ALE-ALEKSANDRA-MARCEC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ALEŠ JENSTERLE S.P.</t>
+          <t>ALE ALE, Alen Križovnik s.p.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Jemčeva cesta   28A, Trzin, 1236 Trzin</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>031 645128</t>
-        </is>
-      </c>
+          <t>Miklošičeva ulica    2, Celje, 3000 Celje</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -2237,88 +2345,84 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Mikro enote</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>21. 9. 2009</t>
+          <t>13. 4. 2023</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ALES-JENSTERLE-S-P/</t>
+          <t>https://www.bizi.si/ALE-ALE-ALEN-KRIZOVNIK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ALEŠ TRILAR S.P.</t>
+          <t>ALEDANA d.o.o.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Zasavska cesta   44, Kranj, 4000 Kranj</t>
+          <t>Jamova cesta  105, Ljubljana, 1000 Ljubljana</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>041 749470</t>
+          <t>051 349814</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Več kontaktov v TIS-u</t>
+          <t>http://www.dok.si</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
+          <t>mirjana@aledana.si</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Velikost RS se ne izračunava</t>
+          <t>Majhne enote</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>3. 1. 2018</t>
+          <t>3. 12. 2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ALES-TRILAR-S-P_KRANJ_ZASAVSKA-CESTA/</t>
+          <t>https://www.bizi.si/ALEDANA-D-O-O/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ALEŠ VIDMAR S.P.</t>
+          <t>ALEKS STYLE, Aleks Pavokovič s.p.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Šukljetova ulica   11, Novo mesto, 8000 Novo mesto</t>
+          <t>Koroška cesta   19, Maribor, 2000 Maribor</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>040 328687</t>
+          <t>070 289800</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2338,44 +2442,44 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1. 10. 2015</t>
+          <t>1. 1. 2018</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ALES-VIDMAR-S-P_NOVO-MESTO_SUKLJETOVA-ULICA/</t>
+          <t>https://www.bizi.si/ALEKS-STYLE-ALEKS-PAVOKOVIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ALJAŽ ŽNIDERŠIČ S.P.</t>
+          <t>ALEKSANDER FENOS S.P.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cesta bratov Cerjakov    4, Brežice, 8250 Brežice</t>
+          <t>Mestni trg    4, Ptuj, 2250 Ptuj</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>031 308315</t>
+          <t>02 7723721</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Več kontaktov v TIS-u</t>
+          <t>http://www.hairclub-fenos.si</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
+          <t>fenos@siol.net</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2385,34 +2489,34 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>22. 10. 2013</t>
+          <t>23. 5. 1994</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ALJAZ-ZNIDERSIC-S-P/</t>
+          <t>https://www.bizi.si/ALEKSANDER-FENOS-S-P/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ALJOŠA KUCLER s.p.</t>
+          <t>ALEKSANDER MRKŠA S.P.</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Drenov Grič   73, Drenov Grič, 1360 Vrhnika</t>
+          <t>Tekačevo    6, Tekačevo, 3250 Rogaška Slatina</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>041 805196</t>
+          <t>041 566320</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2422,42 +2526,46 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
+          <t>frizersandi@gmail.com</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Velikost RS se ne izračunava</t>
+          <t>Mikro enote</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>19. 6. 2018</t>
+          <t>27. 5. 1994</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ALJOSA-KUCLER-S-P/</t>
+          <t>https://www.bizi.si/ALEKSANDER-MRKSA-S-P/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ALPE-ADRIA PDR d.o.o.</t>
+          <t>ALEKSANDER ORAČ s.p.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Križ   23C, Križ, 1218 Komenda</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
+          <t>Rogaška cesta   26, Šmarje pri Jelšah, 3240 Šmarje pri Jelšah</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0838 22116</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -2465,38 +2573,46 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>darjangantar@gmail.com</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>14. 9. 2022</t>
+          <t>9. 9. 2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ALPE-ADRIA-PDR-D-O-O/</t>
+          <t>https://www.bizi.si/ALEKSANDER-ORAC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>AM, Adam Mesarič, s.p.</t>
+          <t>ALEKSANDER ŠKORJANEC, S.P.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Murski Črnci   27E, Murski Črnci, 9251 Tišina</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
+          <t>Beblerjeva ulica    2A, KOPER - CAPODISTRIA, 6000 Koper - Capodistria</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>031 867506</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -2507,35 +2623,43 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>8. 6. 2022</t>
+          <t>1. 9. 2009</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AM-ADAM-MESARIC-S-P/</t>
+          <t>https://www.bizi.si/ALEKSANDER-SKORJANEC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AMD CARS Miloš Dugandžija, s.p.</t>
+          <t>ALEKSANDRA HORVAT s.p.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sadinja vas pri Dvoru   30, Sadinja vas pri Dvoru, 8361 Dvor</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
+          <t>Gregorčičeva ulica    4, PIRAN - PIRANO, 6330 Piran - Pirano</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>031 737500</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -2543,35 +2667,39 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
+          <t>aleksandra.h.sasa@gmail.com</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>7. 11. 2023</t>
+          <t>1. 11. 2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AMD-CARS-MILOS-DUGANDZIJA-S-P/</t>
+          <t>https://www.bizi.si/ALEKSANDRA-HORVAT-S-P_PIRAN-PIRANO/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>AMD, Uroš Dermota s.p.</t>
+          <t>ALEKSANDRA MOŽINA S.P.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Trnoveljska cesta    2, Trnovlje pri Celju, 3000 Celje</t>
+          <t>Ulica Vilka Kledeta    5B, Postojna, 6230 Postojna</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2587,39 +2715,39 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Mikro enote</t>
+          <t>Velikost RS se ne izračunava</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>4. 5. 2015</t>
+          <t>1. 10. 2004</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AMD-UROS-DERMOTA-S-P/</t>
+          <t>https://www.bizi.si/ALEKSANDRA-MOZINA-S-P_POSTOJNA/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>AMJ, Jani Marot, sp.</t>
+          <t>ALEKSANDRA STEGU s.p.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Tevče   11, Tevče, 3270 Laško</t>
+          <t>Gosposka ulica    2, Celje, 3000 Celje</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>031 590722</t>
+          <t>03 5883010</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2629,7 +2757,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>amj@siol.net</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2639,32 +2767,36 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>11. 11. 2009</t>
+          <t>1. 2. 2008</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AMJ-JANI-MAROT-SP/</t>
+          <t>https://www.bizi.si/ALEKSANDRA-STEGU-S-P/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AML, Tomaž Letnar, s.p.</t>
+          <t>ALEKSANDRA ŠLIBAR S.P.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Nevlje   15, Nevlje, 1241 Kamnik</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
+          <t>Grajska cesta   22, Bled, 4260 Bled</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>04 5744462</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -2675,37 +2807,41 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1. 5. 2023</t>
+          <t>1. 9. 2004</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AML-TOMAZ-LETNAR-S-P/</t>
+          <t>https://www.bizi.si/ALEKSANDRA-SLIBAR-S-P/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>AMP Matevž Petrovčič s.p.</t>
+          <t>ALEKSIĆ ŠVAL NATAŠA, S.P.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Vranoviči   27, Vranoviči, 8340 Črnomelj</t>
+          <t>Hrastinska pot   36, Brežice, 8250 Brežice</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>040 228255</t>
+          <t>07 4963130</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2715,38 +2851,46 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>matevz.petrovcic.9@gmail.com</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
+          <t>fs.natasa@gmail.com</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>8. 5. 2024</t>
+          <t>1. 5. 1994</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AMP-MATEVZ-PETROVCIC-S-P/</t>
+          <t>https://www.bizi.si/ALEKSIC-SVAL-NATASA-S-P/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>AMS, MIHAEL SLANA S.P.</t>
+          <t>ALEN CANOVIĆ S.P. CAN - CAN</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Markovci   53, Markovci, 2281 Markovci</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
+          <t>Tržaška cesta    4A, Vrhnika, 1360 Vrhnika</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>041 561415</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -2754,38 +2898,46 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
+          <t>ateljecancan@gmail.com</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1. 12. 2024</t>
+          <t>12. 12. 2001</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AMS-MIHAEL-SLANA-S-P/</t>
+          <t>https://www.bizi.si/ALEN-CANOVIC-S-P-CAN-CAN/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>AMS-DUŠAN 1, Dušan Đukić s.p.</t>
+          <t>ALENKA ALEKSIĆ S.P.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ljubljanska cesta   84, Domžale, 1230 Domžale</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
+          <t>Gregorčičeva ulica    7, Maribor, 2000 Maribor</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>02 2526814</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -2796,35 +2948,43 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1. 7. 2022</t>
+          <t>16. 8. 2004</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AMS-DUSAN-1-DUSAN-DUKIC-S-P/</t>
+          <t>https://www.bizi.si/ALENKA-ALEKSIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ANDRAŽ ZUPAN S.P.</t>
+          <t>ALENKA ANDERLIČ, S.P.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Na Jelovo   29, Radeče, 1433 Radeče</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>Zdraviliški trg    1, Rogaška Slatina, 3250 Rogaška Slatina</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>03 5813393</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -2837,39 +2997,39 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ni podatka o velikosti</t>
+          <t>Mikro enote</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>16. 6. 2022</t>
+          <t>1. 1. 2006</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ANDRAZ-ZUPAN-S-P_RADECE/</t>
+          <t>https://www.bizi.si/ALENKA-ANDERLIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ANDREJ BIJUKLIČ S.P.</t>
+          <t>ALENKA BRENKUŠ S.P.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Langobardska ulica   16, Solkan, 5250 Solkan</t>
+          <t>Delavska cesta    5, Kranj, 4000 Kranj</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>041 366720</t>
+          <t>04 2312828</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2879,7 +3039,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>bijuklic@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2889,36 +3049,32 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>10. 8. 2018</t>
+          <t>17. 11. 1994</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ANDREJ-BIJUKLIC-S-P/</t>
+          <t>https://www.bizi.si/ALENKA-BRENKUS-S-P/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ANDREJ FUNTEK s.p.</t>
+          <t>ALENKA DOLENC S.P.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Podsmrečje   20, Gornji Grad, 3342 Gornji Grad</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>051 384681</t>
-        </is>
-      </c>
+          <t>Barizoni   11, Barizoni, 6280 Ankaran - Ancarano</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -2929,41 +3085,37 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Mikro enote</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>14. 2. 2011</t>
+          <t>5. 9. 2024</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ANDREJ-FUNTEK-S-P/</t>
+          <t>https://www.bizi.si/ALENKA-DOLENC-S-P_BARIZONI_BARIZONI_9736069000/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ANDREJ KALUŽA S.P.</t>
+          <t>ALENKA GAVEZ BLAZNIK S.P.</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Vilharjeva cesta   31A, Ilirska Bistrica, 6250 Ilirska Bistrica</t>
+          <t>Jama pri Dvoru   19, Jama pri Dvoru, 8361 Dvor</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>041 268042</t>
+          <t>040 633739</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2983,34 +3135,34 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1. 4. 2014</t>
+          <t>13. 12. 2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ANDREJ-KALUZA-S-P/</t>
+          <t>https://www.bizi.si/ALENKA-GAVEZ-BLAZNIK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ANDREJ MUŽENIČ S.P.</t>
+          <t>ALENKA KRAMARIČ S.P.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ULICA 15. MAJA    9, KOPER - CAPODISTRIA, 6000 Koper - Capodistria</t>
+          <t>Begunjska cesta   17A, Lesce, 4248 Lesce</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>031 481822</t>
+          <t>040 319120</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3030,34 +3182,34 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10. 12. 2007</t>
+          <t>22. 6. 2015</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ANDREJ-MUZENIC-S-P/</t>
+          <t>https://www.bizi.si/ALENKA-KRAMARIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ANDREJ SITAR S.P.</t>
+          <t>ALENKA LABINJAN S.P.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Preloge   41, Ljubljana, 1211 LJUBLJANA ŠMARTNO</t>
+          <t>Cesta Zore Perello-Godina    2, KOPER - CAPODISTRIA, 6000 Koper - Capodistria</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>041 728303</t>
+          <t>05 6311600</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3077,29 +3229,29 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1. 9. 2010</t>
+          <t>1. 1. 2001</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ANDREJ-SITAR-S-P/</t>
+          <t>https://www.bizi.si/ALENKA-LABINJAN-S-P/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ANPERA d.o.o.</t>
+          <t>ALENKA LEBREHT PURGAJ S.P.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ljubljanska cesta   17, Trzin, 1236 Trzin</t>
+          <t>Zgornja Korena   25I, Zgornja Korena, 2242 Zgornja Korena</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -3115,34 +3267,34 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Mikro enote</t>
+          <t>Velikost RS se ne izračunava</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>28. 9. 2012</t>
+          <t>1. 5. 2006</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ANPERA-D-O-O/</t>
+          <t>https://www.bizi.si/ALENKA-LEBREHT-PURGAJ-S-P/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ANTON BENIGAR S.P.</t>
+          <t>ALENKA LIČER s.p.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Gabrije    8, Ilirska Bistrica, 6250 Ilirska Bistrica</t>
+          <t>Ulica Sv. Barbare    6, Idrija, 5280 Idrija</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -3156,35 +3308,43 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>9. 11. 2022</t>
+          <t>2. 7. 2001</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ANTON-BENIGAR-S-P/</t>
+          <t>https://www.bizi.si/ALENKA-LICER-S-P/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ANTON BRANCELJ s.p.</t>
+          <t>ALENKA VONČINA S.P.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ohonica    3, Ohonica, 1353 Borovnica</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
+          <t>Lapajnetova ulica    7, Idrija, 5280 Idrija</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>031 467763</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -3195,37 +3355,41 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>9. 6. 2022</t>
+          <t>1. 9. 2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ANTON-BRANCELJ-S-P/</t>
+          <t>https://www.bizi.si/ALENKA-VONCINA-S-P_IDRIJA/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ANTON REBOV S.P.</t>
+          <t>ALEŠ PLIVERIČ S.P.</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Škrilje   75, Škrilje, 1292 Ig</t>
+          <t>Dunajska cesta   88, Ljubljana, 1000 Ljubljana</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>041 537135</t>
+          <t>01 4367320</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3235,7 +3399,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>mateja.rebov@kpl.si</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3245,32 +3409,36 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1. 6. 2006</t>
+          <t>1. 9. 2004</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ANTON-REBOV-S-P/</t>
+          <t>https://www.bizi.si/ALES-PLIVERIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ANŽE FILIPIČ S.P.</t>
+          <t>ALEŠ ZAGRADIŠNIK S.P.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ljubljanska cesta  100, Slovenska Bistrica, 2310 Slovenska Bistrica</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
+          <t>Vetrinjska ulica    5, Maribor, 2000 Maribor</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>031 565286</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -3278,38 +3446,46 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
+          <t>gulaz33@gmail.com</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>26. 3. 2025</t>
+          <t>9. 10. 2007</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ANZE-FILIPIC-S-P/</t>
+          <t>https://www.bizi.si/ALES-ZAGRADISNIK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AON BS, d.o.o.</t>
+          <t>ALIJANA KOKOL S.P.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Vrazova ulica    8, Maribor, 2000 Maribor</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
+          <t>Kranjčeva ulica   12, Moravske Toplice, 9226 Moravske Toplice</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>068 164177</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -3317,7 +3493,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>nina.saje1@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3327,36 +3503,32 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>19. 12. 2012</t>
+          <t>8. 10. 2001</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AON-BS-D-O-O/</t>
+          <t>https://www.bizi.si/ALIJANA-KOKOL-S-P/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>APEX DETAILING, Matic Jeseničnik s.p.</t>
+          <t>ALISA HAIR STUDIO, Alisa Ugrin s.p.</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Sv. Barbara   32, Sv. Barbara, 4220 Škofja Loka</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>051 640845</t>
-        </is>
-      </c>
+          <t>Resslova ulica    4, KOPER - CAPODISTRIA, 6000 Koper - Capodistria</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -3364,38 +3536,42 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>apexdetailing.mj@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2. 12. 2023</t>
+          <t>19. 9. 2024</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/APEX-DETAILING-MATIC-JESENICNIK-S-P/</t>
+          <t>https://www.bizi.si/ALISA-HAIR-STUDIO-ALISA-UGRIN-S-P/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ARG 9 d.o.o.</t>
+          <t>ALJA NAGLIČ s.p.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ribičičeva ulica   39, Ljubljana, 1000 Ljubljana</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
+          <t>Celjska cesta   19, Vojnik, 3212 Vojnik</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>041 772880</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -3403,7 +3579,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>arg9doo@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3413,34 +3589,34 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>25. 5. 1992</t>
+          <t>1. 10. 2009</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ARG-9-D-O-O/</t>
+          <t>https://www.bizi.si/ALJA-NAGLIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>AS AVTO d.o.o.</t>
+          <t>ALJAŽ MESEC s.p.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Janševa ulica    6, Maribor, 2000 Maribor</t>
+          <t>Stara cesta    5, Vrhnika, 1360 Vrhnika</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>041 716409</t>
+          <t>041 859085</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3450,7 +3626,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>roli31573@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3460,32 +3636,36 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>23. 10. 2014</t>
+          <t>1. 11. 2017</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AS-AVTO-D-O-O/</t>
+          <t>https://www.bizi.si/ALJAZ-MESEC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>AS Klemenčič, Aleš Klemenčič s.p.</t>
+          <t>ALJAŽ ROGELJ S.P.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Vrh Sv. Treh Kraljev   18A, Vrh Sv. Treh Kraljev, 1373 Rovte</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
+          <t>Poštna ulica    6, Kranj, 4000 Kranj</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>030 349940</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -3496,35 +3676,43 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Velikost RS se ne izračunava</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1. 3. 2025</t>
+          <t>20. 4. 2017</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AS-KLEMENCIC-ALES-KLEMENCIC-S-P/</t>
+          <t>https://www.bizi.si/ALJAZ-ROGELJ-S-P/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>AS MLAKAR d.o.o.</t>
+          <t>ALJOŠA FERRARI S.P.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Tacenska cesta   94, Ljubljana, 1000 Ljubljana</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
+          <t>Drenikova ulica   17, Ljubljana, 1000 Ljubljana</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>01 5153580</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -3532,7 +3720,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>info@asm.si</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3542,32 +3730,36 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>21. 3. 2018</t>
+          <t>12. 11. 2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AS-MLAKAR-D-O-O/</t>
+          <t>https://www.bizi.si/ALJOSA-FERRARI-S-P/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>AS-BDM d.o.o.</t>
+          <t>ALJOŠA MATJAŠIČ S.P.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ulica Marije Drakslerjeve   27, Ljubljana, 1000 Ljubljana</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
+          <t>Antoličičeva ulica    8, Maribor, 2000 Maribor</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>040 891616</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -3575,40 +3767,44 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>dragic.tonika@gmail.com</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>24. 8. 2023</t>
+          <t>16. 5. 2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AS-BDM-D-O-O/</t>
+          <t>https://www.bizi.si/ALJOSA-MATJASIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>AS-F, Alen Fajdiga, s.p.</t>
+          <t>ALMA HADŽIĆ S.P.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Liboje   12C, Liboje, 3301 Petrovče</t>
+          <t>Cesta Jaka Platiše   18, Kranj, 4000 Kranj</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>070 646511</t>
+          <t>031 255626</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3621,37 +3817,41 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1. 9. 2023</t>
+          <t>1. 9. 2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AS-F-ALEN-FAJDIGA-S-P/</t>
+          <t>https://www.bizi.si/ALMA-HADZIC-S-P_KRANJ_CESTA-JAKA-PLATISE/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>AS-POPRAVILA, SEBASTIJAN SORKO S.P.</t>
+          <t>ALTAS, SENIDA MUŠINOVIĆ S.P.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Pod goroj   70, Ruše, 2342 Ruše</t>
+          <t>Ulica OF   23, Radeče, 1433 Radeče</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>031 761854</t>
+          <t>040 184032</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3664,35 +3864,43 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1. 3. 2023</t>
+          <t>25. 7. 2013</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AS-POPRAVILA-SEBASTIJAN-SORKO-S-P/</t>
+          <t>https://www.bizi.si/ALTAS-SENIDA-MUSINOVIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>AS-SAL d.o.o.</t>
+          <t>AMANDA LESJAK S.P.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Litijska cesta   69, Ljubljana, 1000 Ljubljana</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
+          <t>Lavričeva ulica    1, Maribor, 2000 Maribor</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>031 477463</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -3700,7 +3908,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
+          <t>frizerstvo.amanda@triera.net</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3710,34 +3918,34 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>26. 1. 2012</t>
+          <t>20. 8. 2004</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AS-SAL-D-O-O/</t>
+          <t>https://www.bizi.si/AMANDA-LESJAK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>AS-ZVER Primož Zver s.p.</t>
+          <t>AMANDA SELINŠEK S.P.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Gorenjska cesta   35A, Ribnica, 1310 Ribnica</t>
+          <t>Ilaunigova ulica   21, LENART V SLOVENSKIH GORICAH, 2230 LENART V SLOVENSKIH GORICAH</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>064 111310</t>
+          <t>041 250128</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3747,46 +3955,42 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
+          <t>amanda.selinsek@gmail.com</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Velikost RS se ne izračunava</t>
+          <t>Mikro enote</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>30. 11. 2015</t>
+          <t>2. 6. 2003</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AS-ZVER-PRIMOZ-ZVER-S-P/</t>
+          <t>https://www.bizi.si/AMANDA-SELINSEK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ASB Štefan Bogataj s.p</t>
+          <t>AMIL MIDŽAN S.P.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Partizanska cesta  120, Žiri, 4226 Žiri</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>051 411474</t>
-        </is>
-      </c>
+          <t>Cesta na Loko    7, Bistrica pri Tržiču, 4290 Tržič</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -3799,37 +4003,41 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Mikro enote</t>
+          <t>Velikost RS se ne izračunava</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>1. 1. 2015</t>
+          <t>1. 12. 2018</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ASB-STEFAN-BOGATAJ-S-P/</t>
+          <t>https://www.bizi.si/AMIL-MIDZAN-S-P/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ASD SERVIS, Danijel Djurdjević s.p.</t>
+          <t>AMIRA HODŽIĆ S.P.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Toplarniška ulica    1A, Ljubljana, 1000 Ljubljana</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
+          <t>Volaričeva ulica   11, IZOLA - ISOLA, 6310 Izola - Isola</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>05 6417053</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -3837,89 +4045,89 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
+          <t>amira.hodzic2@gmail.com</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Ni podatka o velikosti</t>
+          <t>Mikro enote</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>6. 5. 2019</t>
+          <t>16. 10. 2006</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ASD-SERVIS-DANIJEL-DJURDJEVIC-S-P/</t>
+          <t>https://www.bizi.si/AMIRA-HODZIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ASI d.o.o. Idrija</t>
+          <t>ANA BAJC S.P.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ljubljanska cesta   16, Vrhnika, 1360 Vrhnika</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>05 3727304</t>
-        </is>
-      </c>
+          <t>Opekarniška cesta   14, Celje, 3000 Celje</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.asi.si</t>
+          <t>Več kontaktov v TIS-u</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>info@asi.si</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Srednje enote</t>
+          <t>Mikro enote</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>23. 2. 1990</t>
+          <t>5. 5. 1994</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ASI-D-O-O-IDRIJA/</t>
+          <t>https://www.bizi.si/ANA-BAJC-S-P_CELJE/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ASIS d.o.o.</t>
+          <t>ANA DUŠA S.P.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Pot k sejmišču   30, Ljubljana, 1231 LJUBLJANA-ČRNUČE</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
+          <t>Prešernova cesta   80, Grosuplje, 1290 Grosuplje</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>041 929005</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -3927,7 +4135,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>info@popravilotoce.si</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3937,29 +4145,29 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>15. 10. 2010</t>
+          <t>1. 10. 2001</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ASIS-D-O-O/</t>
+          <t>https://www.bizi.si/ANA-DUSA-S-P/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ASK d.o.o.</t>
+          <t>ANA KRISTANČIČ S.P.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ručigajeva cesta   10A, Kranj, 4000 Kranj</t>
+          <t>Župančičeva ulica    1C, Ajdovščina, 5270 Ajdovščina</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3970,38 +4178,42 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>bester.samo@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>10. 2. 2025</t>
+          <t>18. 5. 2022</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ASK-D-O-O_KRANJ/</t>
+          <t>https://www.bizi.si/ANA-KRISTANCIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>AST TURŠIČ d.o.o.</t>
+          <t>ANA MARIJA DANKO S.P.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ljubljanska cesta  110, Domžale, 1230 Domžale</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
+          <t>Kovinarska ulica    8, Krško, 8270 Krško</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>041 433419</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -4009,39 +4221,39 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ast.tursic@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Ni podatka o velikosti</t>
+          <t>Mikro enote</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>13. 5. 2019</t>
+          <t>27. 10. 2004</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AST-TURSIC-D-O-O/</t>
+          <t>https://www.bizi.si/ANA-MARIJA-DANKO-S-P/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ASV DENIS ŠAVOR S.P.</t>
+          <t>ANA MARIJA ZUPANČIČ S.P.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Vogrsko  173A, Vogrsko, 5293 Volčja Draga</t>
+          <t>Golniška cesta   11D, Mlaka pri Kranju, 4000 Kranj</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -4055,37 +4267,41 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1. 4. 2023</t>
+          <t>1. 7. 2018</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ASV-DENIS-SAVOR-S-P/</t>
+          <t>https://www.bizi.si/ANA-MARIJA-ZUPANCIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ASV LION d.o.o.</t>
+          <t>ANA NAPOTNIK S.P.</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Grajenščak   44, Grajenščak, 2250 Ptuj</t>
+          <t>Plac   13, Ljubno ob Savinji, 3333 Ljubno ob Savinji</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>051 499779</t>
+          <t>03 5841025</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4095,38 +4311,46 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>asvavtoservis@gmail.com</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>25. 10. 2022</t>
+          <t>1. 9. 2004</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ASV-LION-D-O-O/</t>
+          <t>https://www.bizi.si/ANA-NAPOTNIK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ASV, Žan Vatovec s.p.</t>
+          <t>ANA RAJAR S.P.</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Strmica   13B, Logatec, 1370 Logatec</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
+          <t>Trdinova pot   36, Gabrje, 8321 Brusnice</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>040 555909</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -4134,38 +4358,46 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr"/>
+          <t>frizerskistudioa@gmail.com</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>18. 5. 2023</t>
+          <t>12. 10. 2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ASV-ZAN-VATOVEC-S-P/</t>
+          <t>https://www.bizi.si/ANA-RAJAR-S-P/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>AT CAR CARE d.o.o.</t>
+          <t>ANA REBOL s.p.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Cesta Staneta Žagarja    5, Kranj, 4000 Kranj</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
+          <t>Vesna   10, PORTOROŽ - PORTOROSE, 6320 Portorož - Portorose</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>070 666123</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -4173,38 +4405,46 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>tdemisoski39@gmail.com</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>26. 1. 2022</t>
+          <t>5. 11. 2014</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AT-CAR-CARE-D-O-O/</t>
+          <t>https://www.bizi.si/ANA-REBOL-S-P/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ATF avto styling Tadej Flegerič s.p.</t>
+          <t>ANA TKALČEC S.P.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Babinci   60, Babinci, 9240 Ljutomer</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
+          <t>Kocljeva ulica    5, Murska Sobota, 9000 Murska Sobota</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>02 5211595</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -4215,35 +4455,43 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>22. 6. 2023</t>
+          <t>5. 9. 1994</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ATF-AVTO-STYLING-TADEJ-FLEGERIC-S-P/</t>
+          <t>https://www.bizi.si/ANA-TKALCEC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ATS, Aleksandar Trajkov s.p.</t>
+          <t>ANA ŠULIGOJ S.P.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Hruševje   77, Hruševje, 6225 Hruševje</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
+          <t>Vrtojbenska cesta    9, Šempeter pri Gorici, 5290 Šempeter pri Gorici</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>051 334435</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -4254,35 +4502,43 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>19. 5. 2022</t>
+          <t>1. 7. 2016</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ATS-ALEKSANDAR-TRAJKOV-S-P/</t>
+          <t>https://www.bizi.si/ANA-SULIGOJ-S-P/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ATeam d.o.o.</t>
+          <t>ANA ŽIBERT S.P.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Tevče    6B, Tevče, 5270 Ajdovščina</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
+          <t>Ob njivah   14, Dobova, 8257 Dobova</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>070 831730</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -4290,42 +4546,42 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ateaminfo.si@gmail.com</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
+          <t>zibertana8@gmail.com</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>31. 1. 2024</t>
+          <t>1. 3. 2017</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ATEAM-D-O-O/</t>
+          <t>https://www.bizi.si/ANA-ZIBERT-S-P/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>AUGUŠTIN VAHEN S.P.</t>
+          <t>ANAMARIJA WOLF S.P.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Strtenica    4B, Strtenica, 3253 Pristava pri Mestinju</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>031 636539</t>
-        </is>
-      </c>
+          <t>Topniška ulica   58, Ljubljana, 1000 Ljubljana</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -4336,41 +4592,37 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Mikro enote</t>
-        </is>
-      </c>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>3. 3. 2015</t>
+          <t>25. 9. 2019</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AUGUSTIN-VAHEN-S-P_STRTENICA_STRTENICA_6798080000/</t>
+          <t>https://www.bizi.si/ANAMARIJA-WOLF-S-P_LJUBLJANA_TOPNISKA-ULICA_8513007000/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>AUTO DETAILING KOŽUH, JAN KOŽUH S.P.</t>
+          <t>ANDREJA BENKO S.P.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Luže   11, Luže, 4212 Visoko</t>
+          <t>Lendavska ulica   19, Murska Sobota, 9000 Murska Sobota</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>040 983666</t>
+          <t>02 5281457</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4383,121 +4635,137 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>12. 10. 2023</t>
+          <t>23. 3. 1994</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AUTO-DETAILING-KOZUH-JAN-KOZUH-S-P/</t>
+          <t>https://www.bizi.si/ANDREJA-BENKO-S-P_MURSKA-SOBOTA_LENDAVSKA-ULICA/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>AUTO FIX d.o.o.</t>
+          <t>ANDREJA BOLE S.P.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Viška cesta    7, Ljubljana, 1000 Ljubljana</t>
+          <t>Trg komandanta Staneta    8, Ljubljana, 1000 Ljubljana</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>041 593215</t>
+          <t>01 5181014</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Več kontaktov v TIS-u</t>
+          <t>http://www.andrejaje.in</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>autofix2024@gmail.com</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>11. 12. 2023</t>
+          <t>1. 12. 2006</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AUTO-FIX-D-O-O/</t>
+          <t>https://www.bizi.si/ANDREJA-BOLE-S-P/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>AUTO SHINE, VLADIMIR BANFIČ S.P.</t>
+          <t>ANDREJA DRAŽENOVIĆ S.P.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Zgornji Boč    9C, Zgornji Boč, 2352 Selnica ob Dravi</t>
+          <t>Videm   57C, Videm, 1312 VIDEM-DOBREPOLJE</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>040 266115</t>
+          <t>031 505375</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Več kontaktov v TIS-u</t>
+          <t>https://salon-copek.si</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
+          <t>frizer.copek@siol.net</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2. 2. 2022</t>
+          <t>6. 5. 2002</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AUTO-SHINE-VLADIMIR-BANFIC-S-P/</t>
+          <t>https://www.bizi.si/ANDREJA-DRAZENOVIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>AUTOCLASSIC, d.o.o.</t>
+          <t>ANDREJA GOLOB ROBNIK S.P.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Ljubljanska cesta   94, Rače, 2327 Rače</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
+          <t>Luče   41, Luče, 3334 Luče</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>03 5844590</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -4505,7 +4773,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>servis@autoclassic.si</t>
+          <t>frizerskisalon.andreja@siol.net</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4515,32 +4783,36 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>27. 12. 2016</t>
+          <t>1. 6. 2001</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AUTOCLASSIC-D-O-O/</t>
+          <t>https://www.bizi.si/ANDREJA-GOLOB-ROBNIK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>AUTODETAILING DOLENC, Leon Dolenc s.p.</t>
+          <t>ANDREJA GREGORIČ S.P.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Pivola   42, Pivola, 2311 Hoče</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
+          <t>Levstikova ulica    3, Sežana, 6210 Sežana</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>031 791932</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -4548,38 +4820,46 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>autodetailing.dolenc@gmail.com</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1. 9. 2024</t>
+          <t>16. 5. 2011</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AUTODETAILING-DOLENC-LEON-DOLENC-S-P/</t>
+          <t>https://www.bizi.si/ANDREJA-GREGORIC-S-P_SEZANA/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>AUTOHOF TRADE D.O.O.</t>
+          <t>ANDREJA KLEPEC S.P.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Obrtniška ulica   10, Šmarje pri Jelšah, 3240 Šmarje pri Jelšah</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
+          <t>Prešernova ulica   10A, Maribor, 2000 Maribor</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>070 686963</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -4587,7 +4867,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>autohoftrade@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4597,36 +4877,32 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>8. 10. 2018</t>
+          <t>30. 11. 1994</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AUTOHOF-TRADE-D-O-O/</t>
+          <t>https://www.bizi.si/ANDREJA-KLEPEC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>AV AVTO, LUCIJA VOLF s.p.</t>
+          <t>ANDREJA KOSEC S.P.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Gasilska ulica    5, Ruše, 2342 Ruše</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>041 425879</t>
-        </is>
-      </c>
+          <t>Zadružniška ulica   28, Mengeš, 1234 Mengeš</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -4637,47 +4913,51 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>3. 4. 2025</t>
+          <t>1. 10. 1994</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AV-AVTO-LUCIJA-VOLF-S-P/</t>
+          <t>https://www.bizi.si/ANDREJA-KOSEC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>AVTO - PLIN PRIMATEA d.o.o.</t>
+          <t>ANDREJA KOVAČ s.p.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Gorica pri Slivnici    1, Gorica pri Slivnici, 3263 Gorica pri Slivnici</t>
+          <t>Nadvozna cesta    1, Trnovlje pri Celju, 3000 Celje</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>070 407766</t>
+          <t>031 283764</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.avto-plin.eu</t>
+          <t>Več kontaktov v TIS-u</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>info@avto-plin.eu</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4687,32 +4967,36 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1. 7. 2013</t>
+          <t>1. 7. 2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-PLIN-PRIMATEA-D-O-O/</t>
+          <t>https://www.bizi.si/ANDREJA-KOVAC-S-P_TRNOVLJE-PRI-CELJU/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>AVTO ALEŠ, ALEŠ ČEBULJ S.P.</t>
+          <t>ANDREJA KUHAR S.P.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Vopovlje   16, Vopovlje, 4207 Cerklje na Gorenjskem</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
+          <t>Rudniška ulica    2, Kamnik, 1241 Kamnik</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>031 356889</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -4723,35 +5007,43 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>16. 12. 2022</t>
+          <t>7. 1. 2019</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-ALES-ALES-CEBULJ-S-P/</t>
+          <t>https://www.bizi.si/ANDREJA-KUHAR-S-P_KAMNIK/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>AVTO ANŽELJ, BORUT ANŽELJ S.P.</t>
+          <t>ANDREJA LONČARIČ S.P.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Brengova   43A, Brengova, 2236 Cerkvenjak</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
+          <t>Teharska cesta   51, Celje, 3000 Celje</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>03 5481600</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -4759,7 +5051,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>anzelj.borut@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4769,32 +5061,36 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>10. 10. 2008</t>
+          <t>1. 2. 2003</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-ANZELJ-BORUT-ANZELJ-S-P/</t>
+          <t>https://www.bizi.si/ANDREJA-LONCARIC-S-P_CELJE/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>AVTO ASK1 d.o.o.</t>
+          <t>ANDREJA MERŠE S.P.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ljubljanska cesta  100, Slovenska Bistrica, 2310 Slovenska Bistrica</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
+          <t>Hrenovice   40A, Hrenovice, 6230 Postojna</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>041 263340</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -4802,38 +5098,46 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>adalina9@hotmail.com</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>4. 6. 2024</t>
+          <t>20. 3. 2014</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-ASK1-D-O-O/</t>
+          <t>https://www.bizi.si/ANDREJA-MERSE-S-P/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>AVTO BLAB d.o.o.</t>
+          <t>ANDREJA MEŠKO S.P.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Limbuška cesta    2, Limbuš, 2341 Limbuš</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr"/>
+          <t>Zgornja Kungota   10L, Zgornja Kungota, 2201 Zgornja Kungota</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>041 374593</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -4841,35 +5145,39 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>info@blab.si</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Velikost RS se ne izračunava</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>16. 4. 2024</t>
+          <t>1. 10. 2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-BLAB-D-O-O/</t>
+          <t>https://www.bizi.si/ANDREJA-MESKO-S-P/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>AVTO BLIŠČ, Aleš Božič s.p.</t>
+          <t>ANDREJA POPIT S.P.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Smolenja vas   73, Smolenja vas, 8000 Novo mesto</t>
+          <t>Dolgi most   14, Ljubljana, 1000 Ljubljana</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4883,37 +5191,41 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>10. 7. 2023</t>
+          <t>24. 3. 2018</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-BLISC-ALES-BOZIC-S-P/</t>
+          <t>https://www.bizi.si/ANDREJA-POPIT-S-P_LJUBLJANA_DOLGI-MOST_8170975000/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>AVTO BOSS, Zemir Ćehić s.p.</t>
+          <t>ANDREJA PREZELJ S.P.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Likarjeva ulica    4, Brestanica, 8280 Brestanica</t>
+          <t>Podlonk    6, Podlonk, 4228 Železniki</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>040 289108</t>
+          <t>031 618222</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4926,37 +5238,41 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>22. 2. 2022</t>
+          <t>2. 2. 2011</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-BOSS-ZEMIR-CEHIC-S-P/</t>
+          <t>https://www.bizi.si/ANDREJA-PREZELJ-S-P_PODLONK/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>AVTO DEKO Dejan Korunek s.p.</t>
+          <t>ANDREJA SENIČ, S.P.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Lačna Gora    3A, Lačna Gora, 2317 Oplotnica</t>
+          <t>Partizanska cesta   54, Oplotnica, 2317 Oplotnica</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>051 804537</t>
+          <t>040 801039</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4966,38 +5282,46 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr"/>
+          <t>andreja.senic@gmail.com</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>1. 4. 2023</t>
+          <t>1. 3. 2007</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-DEKO-DEJAN-KORUNEK-S-P/</t>
+          <t>https://www.bizi.si/ANDREJA-SENIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>AVTO DENT, Andrej Horvat s.p.</t>
+          <t>ANDREJA STROŽER s.p.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Ulica 9. maja   34, Miklavž na Dravskem polju, 2204 Miklavž na Dravskem polju</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr"/>
+          <t>Braslovče    2A, Braslovče, 3314 Braslovče</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>03 5722732</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -5010,37 +5334,41 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Velikost RS se ne izračunava</t>
+          <t>Mikro enote</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>11. 10. 2018</t>
+          <t>1. 11. 2014</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-DENT-ANDREJ-HORVAT-S-P/</t>
+          <t>https://www.bizi.si/ANDREJA-STROZER-S-P/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>AVTO EKSA, Damjan Ekselenski s.p.</t>
+          <t>ANDREJA URBANČIČ S.P.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Dragučova   51, Dragučova, 2231 Pernica</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr"/>
+          <t>Dvorje  112, Dvorje, 4207 Cerklje na Gorenjskem</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>04 2521112</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -5048,38 +5376,46 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>eksa.avto@gmail.com</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>19. 2. 2025</t>
+          <t>14. 6. 1994</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-EKSA-DAMJAN-EKSELENSKI-S-P_DRAGUCOVA_DRAGUCOVA_9857869000/</t>
+          <t>https://www.bizi.si/ANDREJA-URBANCIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>AVTO ERIK d.o.o.</t>
+          <t>ANDREJA ZRNEC S.P.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Pipanova cesta   20, Šenčur, 4208 Šenčur</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr"/>
+          <t>Jurovski Dol    8A, Jurovski Dol, 2223 Jurovski Dol</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>031 889203</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -5087,42 +5423,42 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>info@avtoerik.si</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>6. 2. 2025</t>
+          <t>29. 10. 1992</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-ERIK-D-O-O/</t>
+          <t>https://www.bizi.si/ANDREJA-ZRNEC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>AVTO ERNI Amadej Ajdnik s.p.</t>
+          <t>ANDREJA ŽIGON S.P.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Podpeč ob Dravinji   16, Podpeč ob Dravinji, 3215 Loče</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>070 641914</t>
-        </is>
-      </c>
+          <t>Kostanjevica na Krasu   75, Kostanjevica na Krasu, 5296 Kostanjevica na Krasu</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -5133,37 +5469,41 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>1. 11. 2023</t>
+          <t>27. 5. 2016</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-ERNI-AMADEJ-AJDNIK-S-P/</t>
+          <t>https://www.bizi.si/ANDREJA-ZIGON-S-P/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>AVTO GALJOT, FRANC GALJOT S.P.</t>
+          <t>ANDREJKA BREMEC S.P.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Raskovec   34, Vrhnika, 1360 Vrhnika</t>
+          <t>Trg maršala Tita   11, Tolmin, 5220 Tolmin</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>040 300066</t>
+          <t>05 3824902</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5173,7 +5513,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>hribcf@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5183,36 +5523,32 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>27. 11. 2013</t>
+          <t>1. 4. 2000</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-GALJOT-FRANC-GALJOT-S-P/</t>
+          <t>https://www.bizi.si/ANDREJKA-BREMEC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>AVTO GLAVIČ, Zoran Glavić s.p.</t>
+          <t>ANDREJKA MAVRIČ S.P.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Za jezom   33, Tržič, 4290 Tržič</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>041 375339</t>
-        </is>
-      </c>
+          <t>Ulica Gradnikove brigade   53, Nova Gorica, 5000 Nova Gorica</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -5230,32 +5566,36 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>1. 9. 2017</t>
+          <t>1. 3. 2013</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-GLAVIC-ZORAN-GLAVIC-S-P_TRZIC_ZA-JEZOM_8038406000/</t>
+          <t>https://www.bizi.si/ANDREJKA-MAVRIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>AVTO GORENC Bojan Gorenc s.p.</t>
+          <t>ANDREPÍNA, Andreja Repina s.p.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Slovenska vas    1, Slovenska vas, 8232 Šentrupert</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr"/>
+          <t>Gregorčičeva ulica   36, Maribor, 2000 Maribor</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>030 385730</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -5266,35 +5606,43 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>24. 4. 2025</t>
+          <t>18. 9. 2018</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-GORENC-BOJAN-GORENC-S-P_SLOVENSKA-VAS_SLOVENSKA-VAS_9909958000/</t>
+          <t>https://www.bizi.si/ANDREPINA-ANDREJA-REPINA-S-P/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>AVTO GRABNER, Boštjan Grabner s.p.</t>
+          <t>ANDROS, d.o.o., Ljubljana</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Šentilj pod Turjakom   70, Šentilj pod Turjakom, 2382 Mislinja</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
+          <t>Topniška ulica   43, Ljubljana, 1000 Ljubljana</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>041 601501</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -5302,42 +5650,42 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr"/>
+          <t>andrej.brodnik@hotmail.com</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>1. 3. 2024</t>
+          <t>19. 10. 2005</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-GRABNER-BOSTJAN-GRABNER-S-P/</t>
+          <t>https://www.bizi.si/ANDROS-D-O-O-LJUBLJANA/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>AVTO JERI, JERNEJ VRHOVNIK S.P.</t>
+          <t>ANGEL’S HAIR, Lidija Đurić s.p.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Verje    1A, Verje, 1215 Medvode</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>040 586579</t>
-        </is>
-      </c>
+          <t>Kolodvorska cesta    1, Domžale, 1230 Domžale</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -5345,42 +5693,38 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
+          <t>lidija21@gmail.com</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>1. 1. 2024</t>
+          <t>2. 12. 2024</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-JERI-JERNEJ-VRHOVNIK-S-P/</t>
+          <t>https://www.bizi.si/ANGEL-S-HAIR-LIDIJA-DURIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>AVTO JERRY, JERNEJ KRIVEC s.p.</t>
+          <t>ANICA ŽMAUC S.P.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Podvolovljek   12A, Podvolovljek, 3334 Luče</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>070 744614</t>
-        </is>
-      </c>
+          <t>Zagorci   59, Zagorci, 2256 Juršinci</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -5394,34 +5738,34 @@
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>16. 7. 2024</t>
+          <t>23. 10. 2019</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-JERRY-JERNEJ-KRIVEC-S-P/</t>
+          <t>https://www.bizi.si/ANICA-ZMAUC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>AVTO KOZMETIKA ROK, d.o.o.</t>
+          <t>ANIJA, Antonija Krope s.p.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Robova ulica   24, Vir, 1230 Domžale</t>
+          <t>Jamnikova ulica    2, Ruše, 2342 Ruše</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>041 663083</t>
+          <t>064 170106</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5431,7 +5775,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>rok1.mihelcic@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -5441,36 +5785,32 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>9. 1. 2013</t>
+          <t>1. 1. 2013</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-KOZMETIKA-ROK-D-O-O/</t>
+          <t>https://www.bizi.si/ANIJA-ANTONIJA-KROPE-S-P/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>AVTO M CAR, Marjan Črnič s.p.</t>
+          <t>ANITA ANDREUZZI s.p.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Dunajska cesta  376, Ljubljana, 1231 LJUBLJANA-ČRNUČE</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>041 551552</t>
-        </is>
-      </c>
+          <t>Linhartov podhod    6, Ljubljana, 1000 Ljubljana</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -5481,41 +5821,37 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Mikro enote</t>
-        </is>
-      </c>
+      <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
-          <t>4. 2. 2014</t>
+          <t>24. 5. 2021</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-M-CAR-MARJAN-CRNIC-S-P/</t>
+          <t>https://www.bizi.si/ANITA-ANDREUZZI-S-P/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>AVTO M, MLADEN NINIĆ S.P.</t>
+          <t>ANITA CIGÜT S.P.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Koroška cesta   53D, Kranj, 4000 Kranj</t>
+          <t>Martjanci   45, Martjanci, 9221 Martjanci</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>040 589195</t>
+          <t>031 666247</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5531,34 +5867,34 @@
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
-          <t>5. 9. 2019</t>
+          <t>11. 2. 2020</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-M-MLADEN-NINIC-S-P/</t>
+          <t>https://www.bizi.si/ANITA-CIGUT-S-P/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>AVTO MARZEL, BRANKO MARZEL S.P.</t>
+          <t>ANITA CUGMAJSTER, S.P.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Maistrova ulica   16, Radlje ob Dravi, 2360 Radlje ob Dravi</t>
+          <t>Bistriška cesta   67, Poljčane, 2319 Poljčane</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>041 742128</t>
+          <t>041 984655</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5568,7 +5904,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>brankomarzel@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -5578,34 +5914,34 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>1. 9. 2004</t>
+          <t>24. 7. 2006</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-MARZEL-BRANKO-MARZEL-S-P/</t>
+          <t>https://www.bizi.si/ANITA-CUGMAJSTER-S-P/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>AVTO MATIC KOBALEJ S.P.</t>
+          <t>ANITA JOVANOVIĆ S.P.</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Brodarska ulica    5, Litija, 1270 Litija</t>
+          <t>Šalek   90, Velenje, 3320 Velenje</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>031 294169</t>
+          <t>064 152225</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5625,36 +5961,32 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>29. 1. 2015</t>
+          <t>8. 10. 2015</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-MATIC-KOBALEJ-S-P/</t>
+          <t>https://www.bizi.si/ANITA-JOVANOVIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>AVTO MIRAN, Miran Martinkovič, s.p.</t>
+          <t>ANITA KOS S.P.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Poklek nad Blanco   29, Poklek nad Blanco, 8283 Blanca</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>041 348771</t>
-        </is>
-      </c>
+          <t>Suhadole   44C, Suhadole, 1218 Komenda</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -5672,32 +6004,36 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>20. 10. 2015</t>
+          <t>27. 10. 2018</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-MIRAN-MIRAN-MARTINKOVIC-S-P/</t>
+          <t>https://www.bizi.si/ANITA-KOS-S-P_SUHADOLE/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>AVTO NATURA d.o.o.</t>
+          <t>ANITA LOBODA S.P.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Kolarjeva ulica   47, Ljubljana, 1000 Ljubljana</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr"/>
+          <t>Novi trg   26A, Kamnik, 1241 Kamnik</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>040 301354</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -5705,42 +6041,46 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>primoz.mesec@avtonatura.si</t>
+          <t>loboda.anita@gmail.com</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Ni podatka o velikosti</t>
+          <t>Mikro enote</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>10. 5. 2019</t>
+          <t>1. 9. 2013</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-NATURA-D-O-O/</t>
+          <t>https://www.bizi.si/ANITA-LOBODA-S-P/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>AVTO PANČUR d.o.o.</t>
+          <t>ANITA VESELIČ PEZDIRC S.P.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Jemčeva cesta   48, Trzin, 1236 Trzin</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr"/>
+          <t>Griblje   52A, Griblje, 8332 Gradac</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>040 359432</t>
+        </is>
+      </c>
       <c r="D125" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -5748,40 +6088,44 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>avto@pancur.si</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr"/>
+          <t>anita.pezdirc@gmail.com</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>25. 4. 2023</t>
+          <t>5. 5. 2011</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-PANCUR-D-O-O/</t>
+          <t>https://www.bizi.si/ANITA-VESELIC-PEZDIRC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>AVTO PARKELJ, Jakob Parkelj s.p.</t>
+          <t>ANJA JELERČIČ S.P.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Pot na Rakovo jelšo  153, Ljubljana, 1000 Ljubljana</t>
+          <t>Cesta Prekomorskih brigad   20, Šempeter pri Gorici, 5290 Šempeter pri Gorici</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>070 644844</t>
+          <t>05 3032609</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5794,35 +6138,43 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>11. 3. 2023</t>
+          <t>20. 5. 2014</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-PARKELJ-JAKOB-PARKELJ-S-P/</t>
+          <t>https://www.bizi.si/ANJA-JELERCIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>AVTO RAIŠP d.o.o.</t>
+          <t>ANJA JERINA S.P.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Meljska cesta   35, Maribor, 2000 Maribor</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr"/>
+          <t>Drenov Grič   61, Drenov Grič, 1360 Vrhnika</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>031 513362</t>
+        </is>
+      </c>
       <c r="D127" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -5830,38 +6182,46 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>info@raisp.si</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr"/>
+          <t>anja.jerina@gmail.com</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>8. 7. 2020</t>
+          <t>5. 10. 2009</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-RAISP-D-O-O/</t>
+          <t>https://www.bizi.si/ANJA-JERINA-S-P/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>AVTO REMADE, Dejan Mihelič s.p.</t>
+          <t>ANJA JUG S.P.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Mestni Vrh  106C, Mestni Vrh, 2250 Ptuj</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr"/>
+          <t>Srebrničeva ulica   11, Deskle, 5210 Deskle</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>041 551269</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -5872,39 +6232,39 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>1. 1. 2023</t>
+          <t>26. 9. 2005</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-REMADE-DEJAN-MIHELIC-S-P/</t>
+          <t>https://www.bizi.si/ANJA-JUG-S-P/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>AVTO SERVIS FELIX, SREČKO BALOH S.P.</t>
+          <t>ANJA MEGUŠAR S.P.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Na Pečeh    4, Ljubno ob Savinji, 3333 Ljubno ob Savinji</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>070 826302</t>
-        </is>
-      </c>
+          <t>Selca   65, Selca, 4227 Selca</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -5912,46 +6272,42 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>srecko.baloh177@gmail.com</t>
+          <t>amegusar@gmail.com</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Mikro enote</t>
+          <t>Velikost RS se ne izračunava</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>15. 3. 2016</t>
+          <t>1. 2. 2015</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-SERVIS-FELIX-SRECKO-BALOH-S-P/</t>
+          <t>https://www.bizi.si/ANJA-MEGUSAR-S-P/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>AVTO SERVIS JEZOVŠEK, d.o.o.</t>
+          <t>ANJA MUZNIK S.P.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Liptovska ulica   30, Slovenske Konjice, 3210 Slovenske Konjice</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>03 5764475</t>
-        </is>
-      </c>
+          <t>Rutarjeva ulica    9, Tolmin, 5220 Tolmin</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -5959,7 +6315,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>avtoservis.jezovsek@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5969,29 +6325,29 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>1. 3. 2004</t>
+          <t>11. 5. 2018</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-SERVIS-JEZOVSEK-D-O-O/</t>
+          <t>https://www.bizi.si/ANJA-MUZNIK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>AVTO SERVIS PETEK, FREDI PETEK S.P.</t>
+          <t>ANJA STYLE, ANJA RESMAN S.P.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Spodnji trg    9, Lovrenc na Pohorju, 2344 Lovrenc na Pohorju</t>
+          <t>Ulica Ivana Rozmana    5, Sežana, 6210 Sežana</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -6005,41 +6361,37 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Velikost RS se ne izračunava</t>
-        </is>
-      </c>
+      <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
-          <t>1. 11. 2018</t>
+          <t>26. 4. 2024</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-SERVIS-PETEK-FREDI-PETEK-S-P/</t>
+          <t>https://www.bizi.si/ANJA-STYLE-ANJA-RESMAN-S-P/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>AVTO SRŠA Jan Srša s.p.</t>
+          <t>ANJA VIDMAR S.P.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Gostičeva ulica   20, Domžale, 1230 Domžale</t>
+          <t>Hraše   28, Hraše, 1216 Smlednik</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>040 607951</t>
+          <t>030 919200</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -6049,35 +6401,39 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr"/>
+          <t>vidmar.anja@gmail.com</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>23. 3. 2023</t>
+          <t>15. 1. 2009</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-SRSA-JAN-SRSA-S-P/</t>
+          <t>https://www.bizi.si/ANJA-VIDMAR-S-P_HRASE/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>AVTO TREVEN, Miha Treven s.p.</t>
+          <t>ANKICA RŽEK VAJAGIĆ S.P.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Marinčev Grič   40, Marinčev Grič, 1360 Vrhnika</t>
+          <t>Zbiljska cesta   15, Medvode, 1215 Medvode</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -6091,37 +6447,41 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>1. 9. 2022</t>
+          <t>1. 9. 2015</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-TREVEN-MIHA-TREVEN-S-P/</t>
+          <t>https://www.bizi.si/ANKICA-RZEK-VAJAGIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>AVTO URŠIČ d.o.o.</t>
+          <t>ANSAL, Anita Bajrić s.p.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Tesovnikova ulica   86A, Ljubljana, 1000 Ljubljana</t>
+          <t>Litijska cesta   38, Ljubljana, 1000 Ljubljana</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>040 580386</t>
+          <t>051 884006</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -6131,7 +6491,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>avto.ursic@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -6141,36 +6501,32 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>21. 10. 2005</t>
+          <t>30. 3. 2015</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-URSIC-D-O-O/</t>
+          <t>https://www.bizi.si/ANSAL-ANITA-BAJRIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>AVTO VERHOVNIK, Danijel Verhovnik s.p.</t>
+          <t>ANTEJ, d.o.o.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Šmartno pri Slovenj Gradcu   12, Šmartno pri Slovenj Gradcu, 2383 Šmartno pri Slovenj Gradcu</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>040 875367</t>
-        </is>
-      </c>
+          <t>Knezova ulica   13, Ljubljana, 1000 Ljubljana</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -6178,40 +6534,44 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>danijel.verhovnik@gmail.com</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr"/>
+          <t>sara.sprager@gmail.com</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>16. 5. 2022</t>
+          <t>5. 3. 2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-VERHOVNIK-DANIJEL-VERHOVNIK-S-P/</t>
+          <t>https://www.bizi.si/ANTEJ-D-O-O/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>AVTO VERŠEC Marko Veršec s.p.</t>
+          <t>ANTONIJA GREGORC S.P.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Bizeljska cesta   72, Bizeljsko, 8259 Bizeljsko</t>
+          <t>Kajuhova cesta    6, Velenje, 3320 Velenje</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>041 915155</t>
+          <t>041 495886</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -6226,37 +6586,41 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Mikro enote</t>
+          <t>Velikost RS se ne izračunava</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>29. 9. 2017</t>
+          <t>1. 1. 2016</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-VERSEC-MARKO-VERSEC-S-P_BIZELJSKO_BIZELJSKA-CESTA/</t>
+          <t>https://www.bizi.si/ANTONIJA-GREGORC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>AVTO VITKO d.o.o.</t>
+          <t>ANTONIJA JANKOVIČ S.P.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Podgorska cesta   76, Slovenj Gradec, 2380 Slovenj Gradec</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr"/>
+          <t>Ulica Otona Župančiča    4, Črnomelj, 8340 Črnomelj</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>040 365999</t>
+        </is>
+      </c>
       <c r="D137" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -6264,7 +6628,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>avto.vitko@t-1.si</t>
+          <t>toncka.milkovic@gmail.com</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -6274,36 +6638,32 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>18. 12. 2014</t>
+          <t>1. 4. 2013</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-VITKO-D-O-O/</t>
+          <t>https://www.bizi.si/ANTONIJA-JANKOVIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>AVTO ČARMAN, Simon Čarman s.p.</t>
+          <t>ANTONIO MÜLLER S.P.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Kunaverjeva ulica    3, Ljubljana, 1000 Ljubljana</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>040 577397</t>
-        </is>
-      </c>
+          <t>Ulica 21. oktobra   17A, Črnomelj, 8340 Črnomelj</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -6311,35 +6671,39 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr"/>
+          <t>abm221@gmail.com</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>9. 5. 2023</t>
+          <t>29. 11. 2013</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-CARMAN-SIMON-CARMAN-S-P/</t>
+          <t>https://www.bizi.si/ANTONIO-MULLER-S-P/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>AVTO ŠMINKA, TINE JERMAN s.p.</t>
+          <t>ANTONČIČ MIRA S.P.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Malkovec   18A, Malkovec, 8295 Tržišče</t>
+          <t>Ulica Ivana Turšiča    6, Sežana, 6210 Sežana</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -6353,35 +6717,43 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>1. 4. 2022</t>
+          <t>1. 1. 1995</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-SMINKA-TINE-JERMAN-S-P/</t>
+          <t>https://www.bizi.si/ANTONCIC-MIRA-S-P/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>AVTO-COOL d.o.o.</t>
+          <t>AP HAIR STUDIO Ana Poje s.p.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Dolinska cesta    1E, KOPER - CAPODISTRIA, 6000 Koper - Capodistria</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr"/>
+          <t>Kolodvorska ulica    7, Ribnica, 1310 Ribnica</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>031 359931</t>
+        </is>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -6389,40 +6761,40 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>stepancic.simon@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
-          <t>30. 5. 2024</t>
+          <t>15. 11. 2019</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-COOL-D-O-O/</t>
+          <t>https://www.bizi.si/AP-HAIR-STUDIO-ANA-POJE-S-P/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>AVTO-GAMA d.o.o.</t>
+          <t>ARANKA MAGYAR S.P.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Satahovci   19E, Satahovci, 9000 Murska Sobota</t>
+          <t>Glavna ulica    4, DOLNJI LAKOŠ - ALSOLAKOS, 9220 Lendava - Lendva</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>041 606643</t>
+          <t>02 5741140</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -6432,42 +6804,42 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>dominik.siftar@gmail.com</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>22. 12. 2023</t>
+          <t>1. 12. 1994</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-GAMA-D-O-O/</t>
+          <t>https://www.bizi.si/ARANKA-MAGYAR-S-P/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>AVTO-P, PREDRAG ĐUKELIĆ S.P.</t>
+          <t>ARENA 100 d.o.o.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Savska cesta   34, Kranj, 4000 Kranj</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>031 325288</t>
-        </is>
-      </c>
+          <t>Tržaška cesta    2, Ljubljana, 1000 Ljubljana</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -6475,7 +6847,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
+          <t>arena100doo@gmail.com</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -6485,29 +6857,29 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2. 9. 2014</t>
+          <t>31. 7. 2017</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-P-PREDRAG-DUKELIC-S-P/</t>
+          <t>https://www.bizi.si/ARENA-100-D-O-O/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>AVTO-S ROBERT SEMEN S.P.</t>
+          <t>ART HAIR STUDIO, Anja Kogovšek s.p.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Novo Polje, cesta XVII   12, Ljubljana, 1260 LJUBLJANA-POLJE</t>
+          <t>Omejčeva ulica   29, Mengeš, 1234 Mengeš</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -6521,94 +6893,94 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Mikro enote</t>
-        </is>
-      </c>
+      <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
-          <t>25. 2. 2002</t>
+          <t>16. 6. 2023</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTO-S-ROBERT-SEMEN-S-P/</t>
+          <t>https://www.bizi.si/ART-HAIR-STUDIO-ANJA-KOGOVSEK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>AVTOBLIŠČ ZAMUDA, Samo Zamuda s.p.</t>
+          <t>ART-PE , PETRA ŠIRCELJ S.P.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Podgorci   11, Podgorci, 2273 Podgorci</t>
+          <t>Rihpovec    8, Rihpovec, 8210 Trebnje</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>041 624017</t>
+          <t>031 002700</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Več kontaktov v TIS-u</t>
+          <t>http://www.art-pe.si</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>zamudasamo@gmail.com</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr"/>
+          <t>info@art-kozmetika.com</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>1. 8. 2019</t>
+          <t>1. 12. 2003</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTOBLISC-ZAMUDA-SAMO-ZAMUDA-S-P/</t>
+          <t>https://www.bizi.si/ART-PE-PETRA-SIRCELJ-S-P/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>AVTOCENTER HORVAT, d. o. o.</t>
+          <t>AS HAIRSTYLING, Anja Sagmeister s.p.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Ulica Matije Gubca   13, Murska Sobota, 9000 Murska Sobota</t>
+          <t>Vošnjakova ulica    1, Ljubljana, 1000 Ljubljana</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>02 5349180</t>
+          <t>041 292829</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.achorvat.si</t>
+          <t>https://ashairstyling.si</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>leonidah@siol.net</t>
+          <t>info@ashairstyling.si</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -6618,29 +6990,29 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>30. 3. 2017</t>
+          <t>20. 3. 2017</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTOCENTER-HORVAT-D-O-O/</t>
+          <t>https://www.bizi.si/AS-HAIRSTYLING-ANJA-SAGMEISTER-S-P/</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>AVTODEL KRIŽAJ JANKO S.P.</t>
+          <t>AS Hair Studio, Sara Abram s.p.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Selce   46, Selce, 6257 Pivka</t>
+          <t>Cesta na Polane    6, Sežana, 6210 Sežana</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6654,41 +7026,37 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Mikro enote</t>
-        </is>
-      </c>
+      <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr">
         <is>
-          <t>1. 1. 1995</t>
+          <t>1. 6. 2022</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTODEL-KRIZAJ-JANKO-S-P/</t>
+          <t>https://www.bizi.si/AS-HAIR-STUDIO-SARA-ABRAM-S-P/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>AVTODIAGNOSTIKA DARKO OCVIRK s.p.</t>
+          <t>AS STUDIO ANDREJA SOKLIČ S.P.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Nezbiše   22, Nezbiše, 3253 Pristava pri Mestinju</t>
+          <t>Dol pri Borovnici   16A, Dol pri Borovnici, 1353 Borovnica</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>041 455742</t>
+          <t>040 468577</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6698,7 +7066,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
+          <t>frizerski.studioas@gmail.com</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -6708,32 +7076,36 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>7. 1. 2014</t>
+          <t>1. 3. 2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTODIAGNOSTIKA-DARKO-OCVIRK-S-P/</t>
+          <t>https://www.bizi.si/AS-STUDIO-ANDREJA-SOKLIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>AVTOELEKTRIKA BP, Bogdan Popadić s.p.</t>
+          <t>ASI STYLE Valerija Ruhitel s.p.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ob železnici   14, Ljubljana, 1000 Ljubljana</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr"/>
+          <t>Cmureška cesta   14B, LENART V SLOVENSKIH GORICAH, 2230 LENART V SLOVENSKIH GORICAH</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>031 268090</t>
+        </is>
+      </c>
       <c r="D148" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -6744,36 +7116,32 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Ni podatka o velikosti</t>
-        </is>
-      </c>
+      <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr">
         <is>
-          <t>1. 4. 2019</t>
+          <t>1. 9. 2024</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTOELEKTRIKA-BP-BOGDAN-POPADIC-S-P/</t>
+          <t>https://www.bizi.si/ASI-STYLE-VALERIJA-RUHITEL-S-P/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>AVTOGANTAR, Mojca Gantar s.p.</t>
+          <t>ASYA, Selma Tahirović s.p.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Spodnje Pirniče   76, Spodnje Pirniče, 1215 Medvode</t>
+          <t>Šutna   15, Kamnik, 1241 Kamnik</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6784,46 +7152,50 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
+          <t>tahirovicselma593@gmail.com</t>
         </is>
       </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr">
         <is>
-          <t>20. 5. 2025</t>
+          <t>23. 9. 2024</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTOGANTAR-MOJCA-GANTAR-S-P/</t>
+          <t>https://www.bizi.si/ASYA-SELMA-TAHIROVIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>AVTOHIŠA SMRDELJ d.o.o.</t>
+          <t>AVANT COM d.o.o.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Bazoviška cesta   44, Ilirska Bistrica, 6250 Ilirska Bistrica</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr"/>
+          <t>Seškova cesta   18A, Medvode, 1215 Medvode</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>01 3616764</t>
+        </is>
+      </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Več kontaktov v TIS-u</t>
+          <t>http://www.avantcom.si</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>natasa.buletinac@gmail.com</t>
+          <t>info@avantcom.si</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -6833,34 +7205,34 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>6. 12. 2004</t>
+          <t>16. 1. 2002</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTOHISA-SMRDELJ-D-O-O/</t>
+          <t>https://www.bizi.si/AVANT-COM-D-O-O/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>AVTOING, MIRO HAJDINJAK s.p.</t>
+          <t>AVGUSTA JAGODIC S.P.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Ženik   40, Ženik, 9244 SV. JURIJ OB ŠČAVNICI</t>
+          <t>Spodnji Brnik   20A, Spodnji Brnik, 4207 Cerklje na Gorenjskem</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>040 791475</t>
+          <t>041 551316</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6870,23 +7242,27 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>avtoing@gmail.com</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>9. 1. 2024</t>
+          <t>1. 2. 2009</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AVTOING-MIRO-HAJDINJAK-S-P/</t>
+          <t>https://www.bizi.si/AVGUSTA-JAGODIC-S-P/</t>
         </is>
       </c>
     </row>
